--- a/medicine/Soins infirmiers et profession infirmière/Aporia___La_revue_en_sciences_infirmières/Aporia___La_revue_en_sciences_infirmières.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Aporia___La_revue_en_sciences_infirmières/Aporia___La_revue_en_sciences_infirmières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aporia_:_La_revue_en_sciences_infirmi%C3%A8res</t>
+          <t>Aporia_:_La_revue_en_sciences_infirmières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aporia : La revue en sciences infirmières (anglais : Aporia: The Nursing Journal) est une revue canadienne consacrée aux débats académiques en sciences infirmières et en sciences de la santé. Le journal s'engage à promouvoir une perspective pluraliste de la science et à estomper les frontières entre les disciplines. Dans le cadre d'analyses critiques de thèmes portant sur la santé, Aporia préconise des épistémologies, des philosophies et des perspectives théoriques diverses, telles que les études féministes, néomarxistes, postmodernes, poststructuralistes, postcoloniales, et la théorie queer.
